--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,15 +22,24 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>001702</t>
+  </si>
+  <si>
     <t>400032</t>
   </si>
   <si>
@@ -40,7 +49,7 @@
     <t>011230</t>
   </si>
   <si>
-    <t>001702</t>
+    <t>东方创新科技混合</t>
   </si>
   <si>
     <t>东方主题精选混合</t>
@@ -52,7 +61,19 @@
     <t>创金合信数字经济主题股票C</t>
   </si>
   <si>
-    <t>东方创新科技混合</t>
+    <t>16.25</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>93.44</t>
   </si>
   <si>
     <t>93.23</t>
@@ -61,7 +82,7 @@
     <t>92.21</t>
   </si>
   <si>
-    <t>93.44</t>
+    <t>3.87</t>
   </si>
   <si>
     <t>4.12</t>
@@ -70,7 +91,16 @@
     <t>5.08</t>
   </si>
   <si>
-    <t>3.87</t>
+    <t>0.6289</t>
+  </si>
+  <si>
+    <t>0.0667</t>
+  </si>
+  <si>
+    <t>0.0381</t>
+  </si>
+  <si>
+    <t>0.0203</t>
   </si>
 </sst>
 </file>
@@ -428,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,85 +480,115 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001702</t>
-  </si>
-  <si>
-    <t>400032</t>
-  </si>
-  <si>
-    <t>011229</t>
-  </si>
-  <si>
-    <t>011230</t>
-  </si>
-  <si>
-    <t>东方创新科技混合</t>
-  </si>
-  <si>
-    <t>东方主题精选混合</t>
-  </si>
-  <si>
-    <t>创金合信数字经济主题股票A</t>
-  </si>
-  <si>
-    <t>创金合信数字经济主题股票C</t>
-  </si>
-  <si>
-    <t>16.25</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>93.44</t>
-  </si>
-  <si>
-    <t>93.23</t>
-  </si>
-  <si>
-    <t>92.21</t>
-  </si>
-  <si>
-    <t>3.87</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>0.6289</t>
-  </si>
-  <si>
-    <t>0.0667</t>
-  </si>
-  <si>
-    <t>0.0381</t>
-  </si>
-  <si>
-    <t>0.0203</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5452</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5990</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.09</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.67</v>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1786,13 +1851,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2226,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>12.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2242,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2258,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,209 +455,211 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方创新科技混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6289</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.09</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +686,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -714,32 +716,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001702</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方创新科技混合</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0479</t>
+          <t>0.4530</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -752,36 +754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>013422</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>太平智行三个月定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>74.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2115</t>
+          <t>0.2440</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -790,36 +792,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>009794</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>太平智选一年定期开放股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>89.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1705</t>
+          <t>0.1876</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -828,36 +830,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>010345</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>华泰柏瑞成长智选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1756</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -866,36 +868,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>001097</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>华泰柏瑞积极优选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0637</t>
+          <t>0.0499</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -904,36 +906,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>010346</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>华泰柏瑞成长智选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -942,36 +944,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011149</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票A</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -980,36 +982,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011150</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票C</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1719,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1746,7 +1748,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1776,32 +1778,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>001702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>东方创新科技混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4530</t>
+          <t>1.0479</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1814,36 +1816,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013422</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平智行三个月定期开放混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.01</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2440</t>
+          <t>0.2115</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1852,36 +1854,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009794</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平智选一年定期开放股票</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.15</t>
+          <t>90.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1876</t>
+          <t>0.1705</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1890,36 +1892,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010345</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞成长智选混合A</t>
+          <t>东方主题精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>90.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1756</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1928,36 +1930,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001097</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极优选股票</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0499</t>
+          <t>0.0637</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1966,36 +1968,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010346</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞成长智选混合C</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2004,36 +2006,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>011149</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>创金合信ESG责任投资股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2042,130 +2044,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>011150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>创金合信ESG责任投资股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红远见价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5772</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2179,112 +2087,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.09</v>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.75</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>12.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>1.67</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -566,6 +583,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5949</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5834</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4980</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -659,7 +1720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1019,7 +2080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1721,7 +2782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2081,7 +3142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
+++ b/数据整理/stocks/A股/创业板/300382-斯莱克.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>7.32</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>12.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4576</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1626,7 +2459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1720,7 +2553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2080,7 +2913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2782,7 +3615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3142,7 +3975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
